--- a/data/trans_orig/P1419-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12FCCC18-EAB4-465A-A1F8-9A5D01EC0D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4C04D86-3178-41AE-802F-D82F0EBCCFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B11582FA-D8DE-4FD4-A964-AFA701A0BB4F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53B22169-202E-4A0D-8799-1B99C6D6ED48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="318">
   <si>
     <t>Población con diagnóstico de varices en las piernas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,922 +95,904 @@
     <t>5,12%</t>
   </si>
   <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>10,26%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>90,94%</t>
   </si>
   <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>6,76%</t>
+    <t>6,82%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>96,77%</t>
   </si>
   <si>
     <t>89,4%</t>
   </si>
   <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0DD724-B0DC-459A-A89F-E422AB51F1DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E280CAB9-0B42-43FA-934F-49DE24FC38DE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2293,7 +2275,7 @@
         <v>6060</v>
       </c>
       <c r="N18" s="7">
-        <v>6192324</v>
+        <v>6192325</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>96</v>
@@ -2344,7 +2326,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2377,7 +2359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0948AB8F-22E1-4457-B090-F829B523A380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7FF5A4-7957-49C3-ABE8-4C4C4EFB5412}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2764,7 +2746,7 @@
         <v>123</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H9" s="7">
         <v>81</v>
@@ -2773,13 +2755,13 @@
         <v>91482</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -2788,13 +2770,13 @@
         <v>108295</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,13 +2791,13 @@
         <v>1947144</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>1552</v>
@@ -2824,28 +2806,28 @@
         <v>1663110</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>3393</v>
       </c>
       <c r="N10" s="7">
-        <v>3610255</v>
+        <v>3610254</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,7 +2869,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2919,7 +2901,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2934,7 +2916,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2949,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2946,13 @@
         <v>2086</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -2979,13 +2961,13 @@
         <v>14702</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2994,13 +2976,13 @@
         <v>16788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +2997,13 @@
         <v>479095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
         <v>397</v>
@@ -3030,13 +3012,13 @@
         <v>443929</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>834</v>
@@ -3045,13 +3027,13 @@
         <v>923024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3152,13 @@
         <v>40788</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H17" s="7">
         <v>278</v>
@@ -3185,13 +3167,13 @@
         <v>299685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>314</v>
@@ -3200,13 +3182,13 @@
         <v>340472</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3203,13 @@
         <v>3378994</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H18" s="7">
         <v>3014</v>
@@ -3236,28 +3218,28 @@
         <v>3251335</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>6180</v>
       </c>
       <c r="N18" s="7">
-        <v>6630329</v>
+        <v>6630330</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,7 +3281,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970801</v>
+        <v>6970802</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3332,7 +3314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E5AAA6-AEC8-4459-AB18-8B5C4EADE050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E82CF59-2AD2-42BF-ACEE-E88F02565B98}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3349,7 +3331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3462,7 +3444,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3477,7 +3459,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3507,13 +3489,13 @@
         <v>18322</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>98</v>
@@ -3522,13 +3504,13 @@
         <v>116433</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -3537,13 +3519,13 @@
         <v>134755</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3540,13 @@
         <v>736025</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7">
         <v>794</v>
@@ -3573,13 +3555,13 @@
         <v>878227</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>1537</v>
@@ -3588,13 +3570,13 @@
         <v>1614252</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3695,13 @@
         <v>27706</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -3728,13 +3710,13 @@
         <v>86198</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M9" s="7">
         <v>102</v>
@@ -3743,13 +3725,13 @@
         <v>113904</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3746,13 @@
         <v>2048679</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>1832</v>
@@ -3779,13 +3761,13 @@
         <v>1902102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>3758</v>
@@ -3794,13 +3776,13 @@
         <v>3950781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,7 +3856,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3904,7 +3886,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3901,13 @@
         <v>6313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3934,13 +3916,13 @@
         <v>15627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -3949,13 +3931,13 @@
         <v>21939</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3952,13 @@
         <v>540573</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>513</v>
@@ -3985,13 +3967,13 @@
         <v>533513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>1009</v>
@@ -4000,13 +3982,13 @@
         <v>1074087</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4107,13 @@
         <v>52341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -4140,13 +4122,13 @@
         <v>218258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>237</v>
@@ -4155,13 +4137,13 @@
         <v>270599</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4158,13 @@
         <v>3325277</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H18" s="7">
         <v>3139</v>
@@ -4191,13 +4173,13 @@
         <v>3313842</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M18" s="7">
         <v>6304</v>
@@ -4206,13 +4188,13 @@
         <v>6639119</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,7 +4269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCD3C00-D366-43D2-A227-9695387C30B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE46FB27-05D0-45CB-A20C-B880BC3248E3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4304,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4417,7 +4399,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4426,13 +4408,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4447,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4444,13 @@
         <v>38348</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H5" s="7">
         <v>262</v>
@@ -4477,13 +4459,13 @@
         <v>149926</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>311</v>
@@ -4492,13 +4474,13 @@
         <v>188274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4495,13 @@
         <v>502215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H6" s="7">
         <v>1164</v>
@@ -4528,13 +4510,13 @@
         <v>683265</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M6" s="7">
         <v>1805</v>
@@ -4543,13 +4525,13 @@
         <v>1185480</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,7 +4620,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4647,13 +4629,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4650,13 @@
         <v>74420</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H9" s="7">
         <v>337</v>
@@ -4683,13 +4665,13 @@
         <v>202974</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M9" s="7">
         <v>424</v>
@@ -4698,13 +4680,13 @@
         <v>277394</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4701,13 @@
         <v>2086824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H10" s="7">
         <v>2581</v>
@@ -4734,13 +4716,13 @@
         <v>2044344</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>4485</v>
@@ -4749,13 +4731,13 @@
         <v>4131168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,7 +4811,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4844,7 +4826,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4859,7 +4841,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4856,13 @@
         <v>16088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -4907,10 +4889,10 @@
         <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4907,13 @@
         <v>656951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="H14" s="7">
         <v>924</v>
@@ -4940,13 +4922,13 @@
         <v>667656</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>1583</v>
@@ -4955,13 +4937,13 @@
         <v>1324606</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,7 +5032,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5059,13 +5041,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5062,13 @@
         <v>128857</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>678</v>
@@ -5095,13 +5077,13 @@
         <v>398971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>836</v>
@@ -5110,13 +5092,13 @@
         <v>527828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5113,13 @@
         <v>3245989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>315</v>
+        <v>29</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H18" s="7">
         <v>4669</v>
@@ -5146,13 +5128,13 @@
         <v>3395265</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M18" s="7">
         <v>7873</v>
@@ -5161,13 +5143,13 @@
         <v>6641254</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1419-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4C04D86-3178-41AE-802F-D82F0EBCCFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EC6E806-B006-4F81-8E8A-244B9DB00E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53B22169-202E-4A0D-8799-1B99C6D6ED48}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9644E228-C89B-489D-BB15-32C90996AB53}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="326">
   <si>
     <t>Población con diagnóstico de varices en las piernas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,883 +95,907 @@
     <t>5,12%</t>
   </si>
   <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
     <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
   </si>
   <si>
     <t>96,77%</t>
@@ -1404,7 +1428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E280CAB9-0B42-43FA-934F-49DE24FC38DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89582350-E5EE-421D-984B-C13C59D5F1A3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1833,7 +1857,7 @@
         <v>1616</v>
       </c>
       <c r="D10" s="7">
-        <v>1658841</v>
+        <v>1658842</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1884,7 +1908,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2245,7 +2269,7 @@
         <v>3117</v>
       </c>
       <c r="D18" s="7">
-        <v>3177465</v>
+        <v>3177464</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>90</v>
@@ -2296,7 +2320,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2359,7 +2383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7FF5A4-7957-49C3-ABE8-4C4C4EFB5412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002CF72E-77B3-433C-8363-6B5BEE26B293}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2818,7 +2842,7 @@
         <v>3393</v>
       </c>
       <c r="N10" s="7">
-        <v>3610254</v>
+        <v>3610255</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>137</v>
@@ -2869,7 +2893,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3170,10 +3194,10 @@
         <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M17" s="7">
         <v>314</v>
@@ -3182,13 +3206,13 @@
         <v>340472</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3227,13 @@
         <v>3378994</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H18" s="7">
         <v>3014</v>
@@ -3218,28 +3242,28 @@
         <v>3251335</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="M18" s="7">
         <v>6180</v>
       </c>
       <c r="N18" s="7">
-        <v>6630330</v>
+        <v>6630329</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,7 +3305,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970802</v>
+        <v>6970801</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3314,7 +3338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E82CF59-2AD2-42BF-ACEE-E88F02565B98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8740269A-6EE3-46A3-8E4D-44C3C6A24708}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3331,7 +3355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3444,7 +3468,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3459,7 +3483,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3489,13 +3513,13 @@
         <v>18322</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>98</v>
@@ -3504,13 +3528,13 @@
         <v>116433</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -3519,13 +3543,13 @@
         <v>134755</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,7 +3564,7 @@
         <v>736025</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>189</v>
@@ -3916,13 +3940,13 @@
         <v>15627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -3931,13 +3955,13 @@
         <v>21939</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3976,13 @@
         <v>540573</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>513</v>
@@ -3967,13 +3991,13 @@
         <v>533513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>1009</v>
@@ -3982,13 +4006,13 @@
         <v>1074087</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4131,13 @@
         <v>52341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -4122,13 +4146,13 @@
         <v>218258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>237</v>
@@ -4137,13 +4161,13 @@
         <v>270599</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4182,13 @@
         <v>3325277</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H18" s="7">
         <v>3139</v>
@@ -4173,13 +4197,13 @@
         <v>3313842</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M18" s="7">
         <v>6304</v>
@@ -4188,13 +4212,13 @@
         <v>6639119</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,7 +4293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE46FB27-05D0-45CB-A20C-B880BC3248E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D251D8BC-2018-4EDB-A776-4F78F5AEEFF7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4286,7 +4310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4399,7 +4423,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4408,13 +4432,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4429,7 +4453,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4468,13 @@
         <v>38348</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
         <v>262</v>
@@ -4459,13 +4483,13 @@
         <v>149926</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>311</v>
@@ -4474,13 +4498,13 @@
         <v>188274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4519,13 @@
         <v>502215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H6" s="7">
         <v>1164</v>
@@ -4510,13 +4534,13 @@
         <v>683265</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M6" s="7">
         <v>1805</v>
@@ -4525,13 +4549,13 @@
         <v>1185480</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,7 +4644,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4629,7 +4653,7 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -4650,13 +4674,13 @@
         <v>74420</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H9" s="7">
         <v>337</v>
@@ -4665,13 +4689,13 @@
         <v>202974</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M9" s="7">
         <v>424</v>
@@ -4680,13 +4704,13 @@
         <v>277394</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4725,13 @@
         <v>2086824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
         <v>2581</v>
@@ -4716,13 +4740,13 @@
         <v>2044344</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7">
         <v>4485</v>
@@ -4731,13 +4755,13 @@
         <v>4131168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4841,7 +4865,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,10 +4883,10 @@
         <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>296</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -4871,13 +4895,13 @@
         <v>46071</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -4886,13 +4910,13 @@
         <v>62160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,10 +4934,10 @@
         <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>924</v>
@@ -4922,13 +4946,13 @@
         <v>667656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>1583</v>
@@ -4937,13 +4961,13 @@
         <v>1324606</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,7 +5056,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5062,13 +5086,13 @@
         <v>128857</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>678</v>
@@ -5077,13 +5101,13 @@
         <v>398971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>836</v>
@@ -5092,13 +5116,13 @@
         <v>527828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5137,13 @@
         <v>3245989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H18" s="7">
         <v>4669</v>
@@ -5128,13 +5152,13 @@
         <v>3395265</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M18" s="7">
         <v>7873</v>
@@ -5143,13 +5167,13 @@
         <v>6641254</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1419-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1419-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{672CE7DB-A6A3-4BC2-ACF9-8BDA6CDBB66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7694EE1A-422E-44C6-BAAC-846149F279AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6A9FF4E-0C23-4C12-867E-C115F6607842}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C68FBFE5-433E-4E08-9B70-972627BEB39C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Población con diagnóstico de varices en las piernas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -716,214 +716,208 @@
     <t>Población con diagnóstico de varices en las piernas en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE43133-B476-4D73-BF25-03ED6BAA3503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08699E68-7D24-4323-B52F-A35923931490}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1486,7 +1480,7 @@
         <v>278</v>
       </c>
       <c r="N4" s="7">
-        <v>282684</v>
+        <v>282683</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1588,7 +1582,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1662,7 +1656,7 @@
         <v>1616</v>
       </c>
       <c r="D8" s="7">
-        <v>1658841</v>
+        <v>1658842</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1713,7 +1707,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1972,7 +1966,7 @@
         <v>3117</v>
       </c>
       <c r="D14" s="7">
-        <v>3177465</v>
+        <v>3177464</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1987,7 +1981,7 @@
         <v>2943</v>
       </c>
       <c r="I14" s="7">
-        <v>3014860</v>
+        <v>3014859</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2002,7 +1996,7 @@
         <v>6060</v>
       </c>
       <c r="N14" s="7">
-        <v>6192324</v>
+        <v>6192325</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2023,7 +2017,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2038,7 +2032,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2053,7 +2047,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2829E3F-C5B3-4CCA-8949-C48353FAFE0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981854F6-CBE4-44A8-9459-94A91E48F43B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2273,7 +2267,7 @@
         <v>1065</v>
       </c>
       <c r="I5" s="7">
-        <v>1144296</v>
+        <v>1144297</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2324,7 +2318,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2443,7 +2437,7 @@
         <v>3393</v>
       </c>
       <c r="N8" s="7">
-        <v>3610255</v>
+        <v>3610254</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>120</v>
@@ -2494,7 +2488,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2598,7 +2592,7 @@
         <v>834</v>
       </c>
       <c r="N11" s="7">
-        <v>923024</v>
+        <v>923025</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>137</v>
@@ -2649,7 +2643,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2837,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9296E10-4AA0-451F-9653-624C47D4F486}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6C7B58-A8FC-4C20-B444-CF8CDDC41366}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3349,7 +3343,7 @@
         <v>1009</v>
       </c>
       <c r="N11" s="7">
-        <v>1074087</v>
+        <v>1074088</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>206</v>
@@ -3400,7 +3394,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3588,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313198CD-F274-4B94-BE03-C5B55F229CA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B24A239-39C7-4CE4-AD2F-54EEA1C32166}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,7 +3703,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="7">
-        <v>38348</v>
+        <v>36384</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>225</v>
@@ -3724,7 +3718,7 @@
         <v>262</v>
       </c>
       <c r="I4" s="7">
-        <v>149926</v>
+        <v>135242</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>228</v>
@@ -3739,7 +3733,7 @@
         <v>311</v>
       </c>
       <c r="N4" s="7">
-        <v>188274</v>
+        <v>171627</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>231</v>
@@ -3760,7 +3754,7 @@
         <v>641</v>
       </c>
       <c r="D5" s="7">
-        <v>502215</v>
+        <v>477558</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>234</v>
@@ -3775,7 +3769,7 @@
         <v>1164</v>
       </c>
       <c r="I5" s="7">
-        <v>683265</v>
+        <v>617926</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>237</v>
@@ -3790,7 +3784,7 @@
         <v>1805</v>
       </c>
       <c r="N5" s="7">
-        <v>1185480</v>
+        <v>1095483</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>240</v>
@@ -3811,7 +3805,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3826,7 +3820,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>833191</v>
+        <v>753168</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3841,7 +3835,7 @@
         <v>2116</v>
       </c>
       <c r="N6" s="7">
-        <v>1373754</v>
+        <v>1267110</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3864,7 +3858,7 @@
         <v>87</v>
       </c>
       <c r="D7" s="7">
-        <v>74420</v>
+        <v>69931</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>243</v>
@@ -3879,7 +3873,7 @@
         <v>337</v>
       </c>
       <c r="I7" s="7">
-        <v>202974</v>
+        <v>187435</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>246</v>
@@ -3894,7 +3888,7 @@
         <v>424</v>
       </c>
       <c r="N7" s="7">
-        <v>277394</v>
+        <v>257365</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>249</v>
@@ -3915,7 +3909,7 @@
         <v>1904</v>
       </c>
       <c r="D8" s="7">
-        <v>2086824</v>
+        <v>2219677</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>252</v>
@@ -3930,7 +3924,7 @@
         <v>2581</v>
       </c>
       <c r="I8" s="7">
-        <v>2044344</v>
+        <v>2048317</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>255</v>
@@ -3945,7 +3939,7 @@
         <v>4485</v>
       </c>
       <c r="N8" s="7">
-        <v>4131168</v>
+        <v>4267996</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>258</v>
@@ -3966,7 +3960,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2161244</v>
+        <v>2289608</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3981,7 +3975,7 @@
         <v>2918</v>
       </c>
       <c r="I9" s="7">
-        <v>2247318</v>
+        <v>2235752</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3996,7 +3990,7 @@
         <v>4909</v>
       </c>
       <c r="N9" s="7">
-        <v>4408562</v>
+        <v>4525361</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4019,7 +4013,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>16088</v>
+        <v>14939</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>261</v>
@@ -4034,7 +4028,7 @@
         <v>79</v>
       </c>
       <c r="I10" s="7">
-        <v>46071</v>
+        <v>42183</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>264</v>
@@ -4049,16 +4043,16 @@
         <v>101</v>
       </c>
       <c r="N10" s="7">
-        <v>62160</v>
+        <v>57122</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,7 +4064,7 @@
         <v>659</v>
       </c>
       <c r="D11" s="7">
-        <v>656951</v>
+        <v>631684</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>269</v>
@@ -4085,7 +4079,7 @@
         <v>924</v>
       </c>
       <c r="I11" s="7">
-        <v>667656</v>
+        <v>618120</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>272</v>
@@ -4100,16 +4094,16 @@
         <v>1583</v>
       </c>
       <c r="N11" s="7">
-        <v>1324606</v>
+        <v>1249805</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4115,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4136,7 +4130,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713727</v>
+        <v>660303</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4151,7 +4145,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1386766</v>
+        <v>1306927</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4174,46 +4168,46 @@
         <v>158</v>
       </c>
       <c r="D13" s="7">
-        <v>128857</v>
+        <v>121254</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>678</v>
       </c>
       <c r="I13" s="7">
-        <v>398971</v>
+        <v>364860</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>836</v>
       </c>
       <c r="N13" s="7">
-        <v>527828</v>
+        <v>486114</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,46 +4219,46 @@
         <v>3204</v>
       </c>
       <c r="D14" s="7">
-        <v>3245989</v>
+        <v>3328919</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>4669</v>
       </c>
       <c r="I14" s="7">
-        <v>3395265</v>
+        <v>3284364</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>7873</v>
       </c>
       <c r="N14" s="7">
-        <v>6641254</v>
+        <v>6613283</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4270,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3374846</v>
+        <v>3450173</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4291,7 +4285,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3794236</v>
+        <v>3649224</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4306,7 +4300,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="7">
-        <v>7169082</v>
+        <v>7099397</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
